--- a/example/data/init.xlsx
+++ b/example/data/init.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>cell_data</t>
     <phoneticPr fontId="1"/>
@@ -39,6 +39,14 @@
   </si>
   <si>
     <t>F004</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S002</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -405,7 +413,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -434,8 +444,8 @@
       <c r="C6" s="2">
         <v>41000</v>
       </c>
-      <c r="D6">
-        <v>1000</v>
+      <c r="D6" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="2:4">
@@ -453,8 +463,8 @@
       <c r="C8" s="2">
         <v>41002</v>
       </c>
-      <c r="D8">
-        <v>200</v>
+      <c r="D8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="2:4">
